--- a/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.253774355242825</v>
+        <v>-7.25377435524282</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.224941508958023</v>
+        <v>2.224941508957984</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.1088197202997078</v>
+        <v>-0.2175608297069711</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.03443790304371738</v>
+        <v>0.0628644998885438</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9979809706897723</v>
+        <v>-14.01299444271037</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.96613776284225</v>
+        <v>-8.871001758895797</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.01414294868600008</v>
+        <v>-0.3800662332280221</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1857063593385396</v>
+        <v>-0.2126654288597485</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.01299444271038</v>
+        <v>-0.9979809706897739</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.871001758895817</v>
+        <v>12.96613776284224</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.2248410857878322</v>
+        <v>-0.03642418047784268</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1504049109573917</v>
+        <v>0.4394687048724699</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.741531920486061</v>
+        <v>-1.741531920486067</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9.986944901480765</v>
+        <v>-9.986944901480738</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.02295655616157085</v>
+        <v>-0.07214918916505264</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1554587691207743</v>
+        <v>-0.2792907268341542</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.073844525032198</v>
+        <v>-6.567843634463087</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.242804792939783</v>
+        <v>-16.39745309567236</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0387098708492606</v>
+        <v>-0.2485789920298155</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04578995997778387</v>
+        <v>-0.4071669496578063</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.567843634463087</v>
+        <v>3.073844525032195</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.39745309567235</v>
+        <v>-3.242804792939794</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08908605658884851</v>
+        <v>0.1478314415490713</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.274615751530631</v>
+        <v>-0.09845857616378041</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.372811136882035</v>
+        <v>1.372811136882038</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.778253379224038</v>
+        <v>-2.778253379224027</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>-0.01655240226543198</v>
+        <v>0.08045673411120013</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.03996399606590503</v>
+        <v>-0.09114678075836152</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.708431998163688</v>
+        <v>-2.349467072138308</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.218661024556726</v>
+        <v>-8.103511028520675</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.06759896012744084</v>
+        <v>-0.125436331137353</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.03129448555110338</v>
+        <v>-0.244446044911702</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.349467072138309</v>
+        <v>5.708431998163686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.103511028520668</v>
+        <v>2.218661024556724</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.0289540995360775</v>
+        <v>0.3852277335711667</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1219042145908226</v>
+        <v>0.08068652218335598</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.705867573259669</v>
+        <v>-3.705867573259669</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.789921353508364</v>
+        <v>-4.789921353508389</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.04332574432641922</v>
+        <v>-0.2561954900970449</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.0675141206020347</v>
+        <v>-0.1648681417817668</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2036782531599161</v>
+        <v>-7.688441707759809</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6360621834623205</v>
+        <v>-9.176740352913525</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0037583936973984</v>
+        <v>-0.4567241977965498</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.009058977676022515</v>
+        <v>-0.2902085569131251</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.688441707759811</v>
+        <v>0.2036782531599163</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.176740352913534</v>
+        <v>-0.6360621834623201</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09278678554522438</v>
+        <v>0.01184737984098589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1341435252030024</v>
+        <v>-0.02412996842353622</v>
       </c>
     </row>
     <row r="16">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.499197685090359</v>
+        <v>1.49919768509036</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.18971433057569</v>
+        <v>-5.189714330575701</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>-0.01562870481606214</v>
+        <v>0.3679831790545979</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.06940495254886295</v>
+        <v>-0.2057321232224365</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.643335948666104</v>
+        <v>-1.464347133464149</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9491451552581752</v>
+        <v>-9.864651857855989</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.04758932361815158</v>
+        <v>-0.2991616629272535</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01256668258774474</v>
+        <v>-0.3423146590327896</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.464347133464148</v>
+        <v>4.643335948666111</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.864651857855984</v>
+        <v>-0.9491451552581902</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.01543209525560992</v>
+        <v>1.708145621490589</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1371445636388389</v>
+        <v>-0.03326906062702135</v>
       </c>
     </row>
     <row r="19">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9015812839548887</v>
+        <v>-0.9015812839548936</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.017816771606285</v>
+        <v>-3.017816771606272</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.009308251172666804</v>
+        <v>-0.2869714429757639</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.03774276432875946</v>
+        <v>-0.150570814320673</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.522928156209985</v>
+        <v>-3.566752317673433</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.031881375175166</v>
+        <v>-7.010996063902611</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01546170169215524</v>
+        <v>-0.7418446139346658</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01132768657201857</v>
+        <v>-0.3078792151628724</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.566752317673436</v>
+        <v>1.522928156209989</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.010996063902578</v>
+        <v>1.031881375175167</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03755721960980431</v>
+        <v>1.095571496018362</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09227194983132567</v>
+        <v>0.05795915470456155</v>
       </c>
     </row>
     <row r="22">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.3506210170203916</v>
+        <v>-0.3506210170203913</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.484811626057384</v>
+        <v>-5.484811626057376</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.003624643784562949</v>
+        <v>-0.107307059482912</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.06937818256873987</v>
+        <v>-0.2618888684175493</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.332600615095185</v>
+        <v>-3.116501912107225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.221712845211667</v>
+        <v>-10.06428630517621</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.02359077752237443</v>
+        <v>-0.6943165283692021</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.01493395287440481</v>
+        <v>-0.4124331742740006</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.116501912107223</v>
+        <v>2.332600615095186</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.0642863051762</v>
+        <v>-1.221712845211645</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.03282727549719437</v>
+        <v>1.254153176353282</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1330167802423756</v>
+        <v>-0.05577288149460637</v>
       </c>
     </row>
     <row r="25">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>2.342507396707072</v>
+        <v>-2.342507396707072</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4.834285552867268</v>
+        <v>-4.834285552867285</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.0277588000431698</v>
+        <v>-0.1500445420015309</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.06764550763206384</v>
+        <v>-0.1694159426955679</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6093764545235103</v>
+        <v>-3.948665399419546</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.706290981960218</v>
+        <v>-6.841415135900066</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.006402011575178669</v>
+        <v>-0.239199562521971</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0375067876574367</v>
+        <v>-0.2302520103787287</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.948665399419542</v>
+        <v>-0.609376454523496</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.841415135900078</v>
+        <v>-2.706290981960215</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04736220995724177</v>
+        <v>-0.04386577777757507</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.0972741298970603</v>
+        <v>-0.09857350759162165</v>
       </c>
     </row>
     <row r="28">

--- a/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-7.25377435524282</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.224941508957984</v>
+        <v>2.224941508957989</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.2175608297069711</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.0628644998885438</v>
+        <v>0.06286449988854395</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.01299444271037</v>
+        <v>-14.04710659759666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.871001758895797</v>
+        <v>-7.641806823754277</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3800662332280221</v>
+        <v>-0.3690252918961789</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2126654288597485</v>
+        <v>-0.1850270023336957</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.9979809706897739</v>
+        <v>-0.7676636248333167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.96613776284224</v>
+        <v>12.38707906918563</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.03642418047784268</v>
+        <v>-0.02148709267555037</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4394687048724699</v>
+        <v>0.4290683195226953</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-1.741531920486067</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-9.986944901480738</v>
+        <v>-9.986944901480744</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.07214918916505264</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.2792907268341542</v>
+        <v>-0.2792907268341543</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.567843634463087</v>
+        <v>-6.700485947171535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.39745309567236</v>
+        <v>-16.83440704153492</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2485789920298155</v>
+        <v>-0.2511098664307774</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4071669496578063</v>
+        <v>-0.4176938373737943</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.073844525032195</v>
+        <v>2.878509817652457</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.242804792939794</v>
+        <v>-3.238694548987993</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1478314415490713</v>
+        <v>0.1307170251473361</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.09845857616378041</v>
+        <v>-0.09636973994672053</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.349467072138308</v>
+        <v>-2.621069061502076</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.103511028520675</v>
+        <v>-8.422631865334207</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.125436331137353</v>
+        <v>-0.1413540871559258</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.244446044911702</v>
+        <v>-0.2464060905096464</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.708431998163686</v>
+        <v>5.513534609704049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.218661024556724</v>
+        <v>2.078256550058164</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.3852277335711667</v>
+        <v>0.3714132619736572</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.08068652218335598</v>
+        <v>0.07695185951817979</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-3.705867573259669</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.789921353508389</v>
+        <v>-4.78992135350838</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2561954900970449</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1648681417817668</v>
+        <v>-0.1648681417817665</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.688441707759809</v>
+        <v>-7.451373570154378</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.176740352913525</v>
+        <v>-9.223781134171755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4567241977965498</v>
+        <v>-0.4557149042543339</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2902085569131251</v>
+        <v>-0.2852256236949731</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2036782531599163</v>
+        <v>0.1224391681059372</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.6360621834623201</v>
+        <v>-0.5913034972118997</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01184737984098589</v>
+        <v>0.01653549820849764</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.02412996842353622</v>
+        <v>-0.01424591976488748</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.464347133464149</v>
+        <v>-1.527724767053201</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.864651857855989</v>
+        <v>-9.33746208148645</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.2991616629272535</v>
+        <v>-0.2988289057195662</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3423146590327896</v>
+        <v>-0.3377316141069571</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.643335948666111</v>
+        <v>4.828166883786012</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9491451552581902</v>
+        <v>-0.995385520939465</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.708145621490589</v>
+        <v>1.710576667068978</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.03326906062702135</v>
+        <v>-0.04729018888639339</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-0.9015812839548936</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-3.017816771606272</v>
+        <v>-3.017816771606277</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.2869714429757639</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.150570814320673</v>
+        <v>-0.1505708143206733</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.566752317673433</v>
+        <v>-3.577521318634712</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.010996063902611</v>
+        <v>-7.289449797261277</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7418446139346658</v>
+        <v>-0.7586249432481471</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3078792151628724</v>
+        <v>-0.3176529517419058</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.522928156209989</v>
+        <v>1.321195208633215</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.031881375175167</v>
+        <v>0.9471175985593615</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.095571496018362</v>
+        <v>0.7807416381643939</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05795915470456155</v>
+        <v>0.05541150037472426</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-0.3506210170203913</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-5.484811626057376</v>
+        <v>-5.484811626057374</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.107307059482912</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.2618888684175493</v>
+        <v>-0.2618888684175492</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.116501912107225</v>
+        <v>-3.099289315759826</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.06428630517621</v>
+        <v>-9.816106518636115</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.6943165283692021</v>
+        <v>-0.6801753317381189</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4124331742740006</v>
+        <v>-0.4031576341369016</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.332600615095186</v>
+        <v>2.804319523599869</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.221712845211645</v>
+        <v>-1.226329463264664</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>1.254153176353282</v>
+        <v>2.040531583807873</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.05577288149460637</v>
+        <v>-0.05779833800301598</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.948665399419546</v>
+        <v>-4.088453318492478</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-6.841415135900066</v>
+        <v>-7.195418167944141</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.239199562521971</v>
+        <v>-0.248151616117464</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2302520103787287</v>
+        <v>-0.2366887407317572</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.609376454523496</v>
+        <v>-0.684401280237638</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-2.706290981960215</v>
+        <v>-2.630730441926867</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04386577777757507</v>
+        <v>-0.04776722582054876</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.09857350759162165</v>
+        <v>-0.09753495503482146</v>
       </c>
     </row>
     <row r="28">
